--- a/public/data/lime/lime_table_mali.xlsx
+++ b/public/data/lime/lime_table_mali.xlsx
@@ -1586,16 +1586,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.43</v>
+        <v>0.4</v>
       </c>
       <c r="K7" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1633,16 +1633,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.91</v>
+        <v>1.26</v>
       </c>
       <c r="K8" t="n">
-        <v>0.56</v>
+        <v>0.03</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.96</v>
+        <v>0.14</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1709,16 +1709,16 @@
         <v>95</v>
       </c>
       <c r="D10" t="n">
-        <v>0.91</v>
+        <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1727,16 +1727,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.96</v>
+        <v>0.42</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1756,10 +1756,10 @@
         <v>96</v>
       </c>
       <c r="D11" t="n">
-        <v>1.19</v>
+        <v>0.73</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.99</v>
+        <v>0.46</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.34</v>
+        <v>0.81</v>
       </c>
       <c r="K12" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.65</v>
+        <v>0.12</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2197,16 +2197,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.98</v>
+        <v>0.3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.84</v>
+        <v>0.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.88</v>
+        <v>0.2</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2385,16 +2385,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.35</v>
+        <v>0.9</v>
       </c>
       <c r="K24" t="n">
-        <v>0.44</v>
+        <v>0.09</v>
       </c>
       <c r="L24" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2432,10 +2432,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.2</v>
+        <v>0.56</v>
       </c>
       <c r="K25" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2479,16 +2479,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.67</v>
+        <v>0.23</v>
       </c>
       <c r="K26" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2761,16 +2761,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>9.95</v>
+        <v>1.55</v>
       </c>
       <c r="K32" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3137,16 +3137,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.68</v>
+        <v>0.31</v>
       </c>
       <c r="K40" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3184,16 +3184,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.68</v>
+        <v>0.32</v>
       </c>
       <c r="K41" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3231,16 +3231,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.59</v>
+        <v>0.19</v>
       </c>
       <c r="K42" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.8</v>
+        <v>0.35</v>
       </c>
       <c r="K44" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -3354,16 +3354,16 @@
         <v>130</v>
       </c>
       <c r="D45" t="n">
-        <v>0.73</v>
+        <v>0.46</v>
       </c>
       <c r="E45" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3372,16 +3372,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.5</v>
+        <v>0.85</v>
       </c>
       <c r="K45" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
